--- a/WebAppPentestGuidelines/WebAppPentestGuidelines.xlsx
+++ b/WebAppPentestGuidelines/WebAppPentestGuidelines.xlsx
@@ -580,15 +580,15 @@
     <t>ファイルをアップロードし、展開されたと推測されるファイルにアクセス</t>
   </si>
   <si>
+    <t>ファイル名に含まれるパスに応じてファイルが作成または上書きされる。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シンボリックリンクを含む圧縮ファイル
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">シンボリックリンクが展開され、リンク先ファイルに応じた処理結果になる。
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">シンボリックリンクを含む圧縮ファイル
-</t>
-  </si>
-  <si>
-    <t>ファイル名に含まれるパスに応じてファイルが作成または上書きされる。</t>
   </si>
   <si>
     <t>XML外部エンティティ参照 (XXE)</t>
@@ -1488,7 +1488,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="16">
+  <fonts count="14">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1496,8 +1496,14 @@
     </font>
     <font>
       <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -1509,10 +1515,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
       <u/>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1520,6 +1522,8 @@
     <font>
       <strike/>
       <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -1538,6 +1542,7 @@
     </font>
     <font>
       <sz val="10.0"/>
+      <color theme="1"/>
       <name val="Yu gothic"/>
     </font>
     <font>
@@ -1545,17 +1550,9 @@
       <name val="Arial"/>
     </font>
     <font>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1727,15 +1724,15 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf quotePrefix="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1747,7 +1744,7 @@
     <xf borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1756,19 +1753,19 @@
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1782,13 +1779,13 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1810,7 +1807,7 @@
     <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1831,37 +1828,37 @@
     <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
   </cellXfs>

--- a/WebAppPentestGuidelines/WebAppPentestGuidelines.xlsx
+++ b/WebAppPentestGuidelines/WebAppPentestGuidelines.xlsx
@@ -293,7 +293,7 @@
   <si>
     <t>以下の条件を満たす場合に脆弱
 1)出力されたページ内に相対パスで指定されたCSS/JavaScriptがあり、パラメータを操作した際にそのパスを起点としてCSS/JavaScriptの相対パスが決定される
-2)指定先のファイルが操作できる（アップロードしたファイル等）</t>
+2)指定先にCSS文字列を挿入可能である</t>
   </si>
   <si>
     <r>
@@ -326,8 +326,8 @@
   <si>
     <t>対象の環境で利用しているテンプレートエンジンで、プレースホルダとみなされる文字列
 テンプレートエンジンごとの例)
-- Twig (PHP) =&gt; ${7*7}
-- Jinja2 (Python) =&gt; ${7*7}
+- Twig (PHP) =&gt; {{7*7}}
+- Jinja2 (Python) =&gt; {{7*7}}
 - ERB (Ruby) =&gt; &lt;%=7*7%&gt;
 - Slim (Ruby) =&gt; #{7*7}</t>
   </si>
@@ -1536,21 +1536,29 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1572,6 +1580,7 @@
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1590,6 +1599,10 @@
     </font>
     <font>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1749,13 +1762,13 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1764,164 +1777,164 @@
     <xf quotePrefix="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf quotePrefix="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2154,19 +2167,19 @@
       <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.0"/>
-    <col customWidth="1" min="2" max="2" width="32.0"/>
-    <col customWidth="1" min="3" max="3" width="23.43"/>
-    <col customWidth="1" min="4" max="4" width="34.43"/>
-    <col customWidth="1" min="5" max="5" width="36.0"/>
-    <col customWidth="1" min="6" max="6" width="50.29"/>
-    <col customWidth="1" hidden="1" min="7" max="7" width="30.14"/>
-    <col customWidth="1" min="8" max="8" width="58.43"/>
-    <col customWidth="1" min="9" max="9" width="42.29"/>
-    <col customWidth="1" hidden="1" min="10" max="10" width="19.57"/>
-    <col customWidth="1" min="11" max="11" width="23.43"/>
+    <col customWidth="1" min="1" max="1" width="3.5"/>
+    <col customWidth="1" min="2" max="2" width="28.0"/>
+    <col customWidth="1" min="3" max="3" width="20.5"/>
+    <col customWidth="1" min="4" max="4" width="30.13"/>
+    <col customWidth="1" min="5" max="5" width="31.5"/>
+    <col customWidth="1" min="6" max="6" width="44.0"/>
+    <col customWidth="1" hidden="1" min="7" max="7" width="26.38"/>
+    <col customWidth="1" min="8" max="8" width="51.13"/>
+    <col customWidth="1" min="9" max="9" width="37.0"/>
+    <col customWidth="1" hidden="1" min="10" max="10" width="17.13"/>
+    <col customWidth="1" min="11" max="11" width="20.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -17727,16 +17740,18 @@
   <mergeCells count="33">
     <mergeCell ref="C2:C29"/>
     <mergeCell ref="C37:C47"/>
-    <mergeCell ref="C83:D85"/>
-    <mergeCell ref="C86:C98"/>
+    <mergeCell ref="B2:B98"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C103:D103"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="D8:D15"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="D19:D24"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="C30:D36"/>
-    <mergeCell ref="B2:B98"/>
-    <mergeCell ref="C80:D82"/>
+    <mergeCell ref="D94:D97"/>
     <mergeCell ref="D37:D39"/>
     <mergeCell ref="D44:D46"/>
     <mergeCell ref="C48:D53"/>
@@ -17752,12 +17767,10 @@
     <mergeCell ref="D75:D76"/>
     <mergeCell ref="C77:C79"/>
     <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C80:D82"/>
+    <mergeCell ref="C83:D85"/>
+    <mergeCell ref="C86:C98"/>
     <mergeCell ref="D92:D93"/>
-    <mergeCell ref="D94:D97"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C103:D103"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="K27"/>
@@ -17774,7 +17787,7 @@
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToHeight="0" paperSize="9" orientation="landscape" pageOrder="overThenDown"/>
   <headerFooter>
-    <oddHeader>&amp;CWebアプリケーション脆弱性診断ガイドライン Ver1.2.1</oddHeader>
+    <oddHeader>&amp;CWebアプリケーション脆弱性診断ガイドライン Ver1.2.3</oddHeader>
   </headerFooter>
   <drawing r:id="rId10"/>
 </worksheet>

--- a/WebAppPentestGuidelines/WebAppPentestGuidelines.xlsx
+++ b/WebAppPentestGuidelines/WebAppPentestGuidelines.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="394">
   <si>
     <t>No</t>
   </si>
@@ -863,9 +863,6 @@
   </si>
   <si>
     <t>WebSocketで通信している機能</t>
-  </si>
-  <si>
-    <t>WebSocketで通信を行っている、もしくはWebSocket通信に対応していること</t>
   </si>
   <si>
     <t>対象と異なるオリジン上に設置した罠ページからWebSocket通信接続を行い、アプリケーションの機能を操作するメッセージを送信</t>
@@ -3887,15 +3884,13 @@
       <c r="E62" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F62" s="12" t="s">
-        <v>200</v>
-      </c>
+      <c r="F62" s="12"/>
       <c r="G62" s="7"/>
       <c r="H62" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="I62" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
@@ -3907,27 +3902,27 @@
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D63" s="31"/>
       <c r="E63" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F63" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="12" t="s">
         <v>180</v>
       </c>
       <c r="I63" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="J63" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J63" s="7" t="s">
+      <c r="K63" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="64">
@@ -3939,21 +3934,21 @@
       <c r="C64" s="34"/>
       <c r="D64" s="35"/>
       <c r="E64" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G64" s="12"/>
       <c r="H64" s="12" t="s">
         <v>180</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J64" s="12"/>
       <c r="K64" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65">
@@ -3963,28 +3958,28 @@
       </c>
       <c r="B65" s="11"/>
       <c r="C65" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="E65" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="F65" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="F65" s="47" t="s">
+      <c r="G65" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="G65" s="12" t="s">
+      <c r="H65" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="H65" s="7" t="s">
+      <c r="I65" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="I65" s="12" t="s">
+      <c r="J65" s="12" t="s">
         <v>218</v>
-      </c>
-      <c r="J65" s="12" t="s">
-        <v>219</v>
       </c>
       <c r="K65" s="13"/>
     </row>
@@ -3997,22 +3992,22 @@
       <c r="C66" s="11"/>
       <c r="D66" s="16"/>
       <c r="E66" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F66" s="12" t="s">
         <v>220</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>221</v>
       </c>
       <c r="G66" s="12" t="s">
         <v>15</v>
       </c>
       <c r="H66" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I66" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="I66" s="7" t="s">
+      <c r="J66" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="K66" s="13"/>
     </row>
@@ -4024,21 +4019,21 @@
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E67" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="F67" s="48"/>
       <c r="G67" s="12"/>
       <c r="H67" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="I67" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="I67" s="7" t="s">
+      <c r="J67" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="K67" s="13"/>
     </row>
@@ -4051,21 +4046,21 @@
       <c r="C68" s="11"/>
       <c r="D68" s="16"/>
       <c r="E68" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F68" s="48"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="I68" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="I68" s="7" t="s">
+      <c r="J68" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="J68" s="7" t="s">
+      <c r="K68" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K68" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="69">
@@ -4076,26 +4071,26 @@
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F69" s="48"/>
       <c r="G69" s="49" t="s">
         <v>15</v>
       </c>
       <c r="H69" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="J69" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="I69" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="J69" s="24" t="s">
+      <c r="K69" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="70">
@@ -4106,28 +4101,28 @@
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E70" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="F70" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="G70" s="49" t="s">
         <v>15</v>
       </c>
       <c r="H70" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="I70" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="I70" s="7" t="s">
+      <c r="J70" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="J70" s="7" t="s">
+      <c r="K70" s="45" t="s">
         <v>243</v>
-      </c>
-      <c r="K70" s="45" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="71">
@@ -4139,22 +4134,22 @@
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
       <c r="E71" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G71" s="49" t="s">
         <v>15</v>
       </c>
       <c r="H71" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="I71" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="I71" s="7" t="s">
+      <c r="J71" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="K71" s="13"/>
     </row>
@@ -4167,23 +4162,23 @@
       <c r="C72" s="11"/>
       <c r="D72" s="16"/>
       <c r="E72" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F72" s="48"/>
       <c r="G72" s="49" t="s">
         <v>15</v>
       </c>
       <c r="H72" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I72" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="I72" s="7" t="s">
+      <c r="J72" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="J72" s="7" t="s">
+      <c r="K72" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="73">
@@ -4194,21 +4189,21 @@
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F73" s="48"/>
       <c r="G73" s="49"/>
       <c r="H73" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="I73" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="I73" s="24" t="s">
+      <c r="J73" s="9" t="s">
         <v>255</v>
-      </c>
-      <c r="J73" s="9" t="s">
-        <v>256</v>
       </c>
       <c r="K73" s="7"/>
     </row>
@@ -4226,13 +4221,13 @@
       <c r="F74" s="48"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="I74" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="I74" s="7" t="s">
+      <c r="J74" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="K74" s="7"/>
     </row>
@@ -4244,24 +4239,24 @@
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E75" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="F75" s="48"/>
       <c r="G75" s="12"/>
       <c r="H75" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="I75" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="I75" s="7" t="s">
+      <c r="J75" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J75" s="7" t="s">
+      <c r="K75" s="45" t="s">
         <v>264</v>
-      </c>
-      <c r="K75" s="45" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="76">
@@ -4273,21 +4268,21 @@
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
       <c r="E76" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F76" s="48"/>
       <c r="G76" s="12"/>
       <c r="H76" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="I76" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="I76" s="7" t="s">
+      <c r="J76" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="J76" s="7" t="s">
-        <v>268</v>
-      </c>
       <c r="K76" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="77">
@@ -4297,26 +4292,26 @@
       </c>
       <c r="B77" s="11"/>
       <c r="C77" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>270</v>
-      </c>
       <c r="E77" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F77" s="48"/>
       <c r="G77" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H77" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="I77" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="I77" s="7" t="s">
+      <c r="J77" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="K77" s="7"/>
     </row>
@@ -4329,20 +4324,20 @@
       <c r="C78" s="11"/>
       <c r="D78" s="16"/>
       <c r="E78" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F78" s="48"/>
       <c r="G78" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H78" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="I78" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="I78" s="7" t="s">
+      <c r="J78" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="J78" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="K78" s="7"/>
     </row>
@@ -4354,21 +4349,21 @@
       <c r="B79" s="11"/>
       <c r="C79" s="16"/>
       <c r="D79" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E79" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
       <c r="H79" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="I79" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="I79" s="7" t="s">
+      <c r="J79" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="K79" s="50"/>
     </row>
@@ -4379,24 +4374,24 @@
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="51" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D80" s="33"/>
       <c r="E80" s="52" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F80" s="53"/>
       <c r="G80" s="54" t="s">
         <v>75</v>
       </c>
       <c r="H80" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="I80" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="I80" s="55" t="s">
+      <c r="J80" s="55" t="s">
         <v>287</v>
-      </c>
-      <c r="J80" s="55" t="s">
-        <v>288</v>
       </c>
       <c r="K80" s="56"/>
     </row>
@@ -4408,25 +4403,25 @@
       <c r="B81" s="11"/>
       <c r="D81" s="33"/>
       <c r="E81" s="57" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F81" s="53" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G81" s="54" t="s">
         <v>15</v>
       </c>
       <c r="H81" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="I81" s="55" t="s">
         <v>290</v>
       </c>
-      <c r="I81" s="55" t="s">
+      <c r="J81" s="55" t="s">
         <v>291</v>
       </c>
-      <c r="J81" s="55" t="s">
+      <c r="K81" s="58" t="s">
         <v>292</v>
-      </c>
-      <c r="K81" s="58" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="82">
@@ -4438,23 +4433,23 @@
       <c r="C82" s="59"/>
       <c r="D82" s="35"/>
       <c r="E82" s="52" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F82" s="53"/>
       <c r="G82" s="54" t="s">
         <v>15</v>
       </c>
       <c r="H82" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="I82" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="J82" s="55" t="s">
         <v>294</v>
       </c>
-      <c r="I82" s="55" t="s">
-        <v>291</v>
-      </c>
-      <c r="J82" s="55" t="s">
+      <c r="K82" s="58" t="s">
         <v>295</v>
-      </c>
-      <c r="K82" s="58" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="83">
@@ -4464,27 +4459,27 @@
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D83" s="31"/>
       <c r="E83" s="60" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F83" s="12"/>
       <c r="G83" s="12" t="s">
         <v>15</v>
       </c>
       <c r="H83" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="I83" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="I83" s="7" t="s">
+      <c r="J83" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="J83" s="7" t="s">
+      <c r="K83" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K83" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="84">
@@ -4496,21 +4491,21 @@
       <c r="C84" s="32"/>
       <c r="D84" s="33"/>
       <c r="E84" s="60" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F84" s="12"/>
       <c r="G84" s="12"/>
       <c r="H84" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I84" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="J84" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="J84" s="7" t="s">
+      <c r="K84" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K84" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="85">
@@ -4522,21 +4517,21 @@
       <c r="C85" s="34"/>
       <c r="D85" s="35"/>
       <c r="E85" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F85" s="61"/>
       <c r="G85" s="9"/>
       <c r="H85" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I85" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="I85" s="9" t="s">
+      <c r="J85" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="J85" s="24" t="s">
-        <v>308</v>
-      </c>
       <c r="K85" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="86">
@@ -4546,10 +4541,10 @@
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D86" s="9" t="s">
         <v>309</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>310</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>13</v>
@@ -4557,16 +4552,16 @@
       <c r="F86" s="12"/>
       <c r="G86" s="7"/>
       <c r="H86" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="I86" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="I86" s="7" t="s">
+      <c r="J86" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="J86" s="7" t="s">
+      <c r="K86" s="17" t="s">
         <v>313</v>
-      </c>
-      <c r="K86" s="17" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="87">
@@ -4577,24 +4572,24 @@
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E87" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="F87" s="48"/>
       <c r="G87" s="12"/>
       <c r="H87" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="I87" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="I87" s="7" t="s">
+      <c r="J87" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="J87" s="7" t="s">
+      <c r="K87" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="K87" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="88">
@@ -4605,21 +4600,21 @@
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="E88" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="F88" s="48"/>
       <c r="G88" s="7"/>
       <c r="H88" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="I88" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="I88" s="7" t="s">
+      <c r="J88" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="J88" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="K88" s="13"/>
     </row>
@@ -4631,24 +4626,24 @@
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="E89" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="F89" s="48"/>
       <c r="G89" s="12"/>
       <c r="H89" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="I89" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="I89" s="7" t="s">
+      <c r="J89" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="J89" s="7" t="s">
+      <c r="K89" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="K89" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="90">
@@ -4659,21 +4654,21 @@
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E90" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="F90" s="48"/>
       <c r="G90" s="49"/>
       <c r="H90" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="I90" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="I90" s="7" t="s">
+      <c r="J90" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="J90" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="K90" s="7"/>
     </row>
@@ -4685,20 +4680,20 @@
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="52" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F91" s="62"/>
       <c r="G91" s="63" t="s">
+        <v>337</v>
+      </c>
+      <c r="H91" s="49" t="s">
         <v>338</v>
       </c>
-      <c r="H91" s="49" t="s">
+      <c r="I91" s="64" t="s">
         <v>339</v>
-      </c>
-      <c r="I91" s="64" t="s">
-        <v>340</v>
       </c>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
@@ -4711,21 +4706,21 @@
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F92" s="13"/>
       <c r="G92" s="13"/>
       <c r="H92" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="I92" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="I92" s="7" t="s">
+      <c r="J92" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="J92" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="K92" s="7"/>
     </row>
@@ -4738,18 +4733,18 @@
       <c r="C93" s="11"/>
       <c r="D93" s="16"/>
       <c r="E93" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="I93" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="I93" s="7" t="s">
+      <c r="J93" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="J93" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="K93" s="7"/>
     </row>
@@ -4761,24 +4756,24 @@
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F94" s="48"/>
       <c r="G94" s="65"/>
       <c r="H94" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="I94" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="I94" s="7" t="s">
+      <c r="J94" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="J94" s="7" t="s">
+      <c r="K94" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="K94" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="95">
@@ -4790,21 +4785,21 @@
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
       <c r="E95" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F95" s="48"/>
       <c r="G95" s="7"/>
       <c r="H95" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="I95" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="I95" s="9" t="s">
+      <c r="J95" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="J95" s="7" t="s">
-        <v>357</v>
-      </c>
       <c r="K95" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="96">
@@ -4816,18 +4811,18 @@
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
       <c r="E96" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F96" s="48"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="I96" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="I96" s="9" t="s">
+      <c r="J96" s="9" t="s">
         <v>359</v>
-      </c>
-      <c r="J96" s="9" t="s">
-        <v>360</v>
       </c>
       <c r="K96" s="13"/>
     </row>
@@ -4840,21 +4835,21 @@
       <c r="C97" s="11"/>
       <c r="D97" s="16"/>
       <c r="E97" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F97" s="48"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="I97" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="I97" s="7" t="s">
+      <c r="J97" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="J97" s="7" t="s">
+      <c r="K97" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="K97" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="98" ht="36.75" customHeight="1">
@@ -4865,7 +4860,7 @@
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
       <c r="D98" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>13</v>
@@ -4873,13 +4868,13 @@
       <c r="F98" s="48"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I98" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="I98" s="7" t="s">
+      <c r="J98" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="J98" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="K98" s="7"/>
     </row>
@@ -4889,13 +4884,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="D99" s="9" t="s">
         <v>370</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>371</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>13</v>
@@ -4905,16 +4900,16 @@
         <v>75</v>
       </c>
       <c r="H99" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="I99" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="I99" s="7" t="s">
+      <c r="J99" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="J99" s="7" t="s">
+      <c r="K99" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="K99" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="100">
@@ -4925,25 +4920,25 @@
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F100" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="G100" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="G100" s="7" t="s">
+      <c r="H100" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="H100" s="7" t="s">
+      <c r="I100" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="I100" s="7" t="s">
+      <c r="J100" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="J100" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="K100" s="13"/>
     </row>
@@ -4955,28 +4950,28 @@
       <c r="B101" s="11"/>
       <c r="C101" s="16"/>
       <c r="D101" s="67" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F101" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="I101" s="67" t="s">
         <v>382</v>
       </c>
-      <c r="G101" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="I101" s="67" t="s">
+      <c r="J101" s="67" t="s">
         <v>383</v>
       </c>
-      <c r="J101" s="67" t="s">
+      <c r="K101" s="67" t="s">
         <v>384</v>
-      </c>
-      <c r="K101" s="67" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="102">
@@ -4986,26 +4981,26 @@
       </c>
       <c r="B102" s="11"/>
       <c r="C102" s="43" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D102" s="44"/>
       <c r="E102" s="49" t="s">
         <v>13</v>
       </c>
       <c r="F102" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G102" s="28" t="s">
         <v>387</v>
       </c>
-      <c r="G102" s="28" t="s">
+      <c r="H102" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="H102" s="7" t="s">
+      <c r="I102" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="I102" s="9" t="s">
+      <c r="J102" s="9" t="s">
         <v>390</v>
-      </c>
-      <c r="J102" s="9" t="s">
-        <v>391</v>
       </c>
       <c r="K102" s="13"/>
     </row>
@@ -5016,7 +5011,7 @@
       </c>
       <c r="B103" s="16"/>
       <c r="C103" s="43" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D103" s="44"/>
       <c r="E103" s="49" t="s">
@@ -5025,13 +5020,13 @@
       <c r="F103" s="15"/>
       <c r="G103" s="28"/>
       <c r="H103" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="I103" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="I103" s="9" t="s">
-        <v>394</v>
-      </c>
       <c r="J103" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K103" s="13"/>
     </row>

--- a/WebAppPentestGuidelines/WebAppPentestGuidelines.xlsx
+++ b/WebAppPentestGuidelines/WebAppPentestGuidelines.xlsx
@@ -293,7 +293,7 @@
   <si>
     <t>以下の条件を満たす場合に脆弱
 1)出力されたページ内に相対パスで指定されたCSS/JavaScriptがあり、パラメータを操作した際にそのパスを起点としてCSS/JavaScriptの相対パスが決定される
-2)指定先にCSS文字列を挿入可能である</t>
+2)指定先パスが示すファイルやスクリプトにCSS/JavaScript文字列が挿入可能である（ユーザが書きこんだ文字列が出力される、ファイルをアップロードできる等）</t>
   </si>
   <si>
     <r>

--- a/WebAppPentestGuidelines/WebAppPentestGuidelines.xlsx
+++ b/WebAppPentestGuidelines/WebAppPentestGuidelines.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="395">
   <si>
     <t>No</t>
   </si>
@@ -287,13 +287,19 @@
     <t>Relative Path Overwrite</t>
   </si>
   <si>
-    <t>/test/test/
-//</t>
+    <t>「/hoge/index.php」というファイルに対して
+/hoge/index.php/
+/hoge/index.php/fuga/</t>
+  </si>
+  <si>
+    <t>パスに検出パターンを挿入し、リクエストを送信</t>
   </si>
   <si>
     <t>以下の条件を満たす場合に脆弱
-1)出力されたページ内に相対パスで指定されたCSS/JavaScriptがあり、パラメータを操作した際にそのパスを起点としてCSS/JavaScriptの相対パスが決定される
-2)指定先パスが示すファイルやスクリプトにCSS/JavaScript文字列が挿入可能である（ユーザが書きこんだ文字列が出力される、ファイルをアップロードできる等）</t>
+「/hoge/index.php」というファイルがあるとき、
+1)「/hoge/index.php」内で相対パス指定で「../css/main.css」等のようにJavaScriptやCSSを読み込んでいる
+2)「hoge/index.php/fuga/」というパスにアクセスした際にも「/hoge/index.php」と同様のHTMLが出力される
+3)「/hoge/index.php/fuga/」や「/hoge/index.php/」にアクセスした際に相対パス解釈の結果読み込まれる「/hoge/index.php/css/main.css」や「/hoge/css/main.css」といったファイルに対して、CSS/JavaScript文字列が挿入可能である（「hoge/index.php」内でユーザ入力が蓄積され出力される、/hoge/css/main.cssというパスにファイルをアップロードできる等）</t>
   </si>
   <si>
     <r>
@@ -2923,7 +2929,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="27"/>
     </row>
-    <row r="27" ht="206.25" customHeight="1">
+    <row r="27" ht="255.0" customHeight="1">
       <c r="A27" s="4">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -2941,14 +2947,14 @@
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="7" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" ht="40.5" customHeight="1">
@@ -2959,13 +2965,13 @@
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E28" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>16</v>
@@ -2974,7 +2980,7 @@
         <v>16</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="27"/>
@@ -2991,18 +2997,18 @@
         <v>13</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="9" t="s">
         <v>16</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30">
@@ -3012,14 +3018,14 @@
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="31"/>
       <c r="E30" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>15</v>
@@ -3028,10 +3034,10 @@
         <v>16</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K30" s="27"/>
     </row>
@@ -3044,10 +3050,10 @@
       <c r="C31" s="32"/>
       <c r="D31" s="33"/>
       <c r="E31" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>15</v>
@@ -3056,10 +3062,10 @@
         <v>16</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K31" s="18"/>
     </row>
@@ -3072,19 +3078,19 @@
       <c r="C32" s="32"/>
       <c r="D32" s="33"/>
       <c r="E32" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>16</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K32" s="18"/>
     </row>
@@ -3097,10 +3103,10 @@
       <c r="C33" s="32"/>
       <c r="D33" s="33"/>
       <c r="E33" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>15</v>
@@ -3109,7 +3115,7 @@
         <v>16</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J33" s="10"/>
       <c r="K33" s="18"/>
@@ -3123,10 +3129,10 @@
       <c r="C34" s="32"/>
       <c r="D34" s="33"/>
       <c r="E34" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>15</v>
@@ -3135,10 +3141,10 @@
         <v>16</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K34" s="18"/>
     </row>
@@ -3151,10 +3157,10 @@
       <c r="C35" s="32"/>
       <c r="D35" s="33"/>
       <c r="E35" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>15</v>
@@ -3163,7 +3169,7 @@
         <v>16</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J35" s="10"/>
       <c r="K35" s="18"/>
@@ -3177,19 +3183,19 @@
       <c r="C36" s="34"/>
       <c r="D36" s="35"/>
       <c r="E36" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>16</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K36" s="18"/>
     </row>
@@ -3200,27 +3206,27 @@
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F37" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G37" s="36"/>
       <c r="H37" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J37" s="10"/>
       <c r="K37" s="37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38">
@@ -3232,17 +3238,17 @@
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F38" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G38" s="36"/>
       <c r="H38" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J38" s="10"/>
       <c r="K38" s="9"/>
@@ -3256,21 +3262,21 @@
       <c r="C39" s="11"/>
       <c r="D39" s="16"/>
       <c r="E39" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G39" s="36"/>
       <c r="H39" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J39" s="10"/>
       <c r="K39" s="37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40">
@@ -3281,20 +3287,20 @@
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F40" s="28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G40" s="36"/>
       <c r="H40" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J40" s="10"/>
       <c r="K40" s="38"/>
@@ -3307,20 +3313,20 @@
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G41" s="36"/>
       <c r="H41" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J41" s="10"/>
       <c r="K41" s="9"/>
@@ -3333,24 +3339,24 @@
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F42" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G42" s="36"/>
       <c r="H42" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J42" s="10"/>
       <c r="K42" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43">
@@ -3361,20 +3367,20 @@
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G43" s="36"/>
       <c r="H43" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J43" s="10"/>
       <c r="K43" s="9"/>
@@ -3387,20 +3393,20 @@
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F44" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G44" s="36"/>
       <c r="H44" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J44" s="10"/>
       <c r="K44" s="9"/>
@@ -3414,17 +3420,17 @@
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G45" s="36"/>
       <c r="H45" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J45" s="10"/>
       <c r="K45" s="9"/>
@@ -3438,17 +3444,17 @@
       <c r="C46" s="11"/>
       <c r="D46" s="16"/>
       <c r="E46" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F46" s="28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G46" s="36"/>
       <c r="H46" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J46" s="10"/>
       <c r="K46" s="9"/>
@@ -3461,20 +3467,20 @@
       <c r="B47" s="11"/>
       <c r="C47" s="16"/>
       <c r="D47" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F47" s="28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G47" s="36"/>
       <c r="H47" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J47" s="10"/>
       <c r="K47" s="9"/>
@@ -3486,29 +3492,29 @@
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="31"/>
       <c r="E48" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F48" s="28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49">
@@ -3520,25 +3526,25 @@
       <c r="C49" s="32"/>
       <c r="D49" s="33"/>
       <c r="E49" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F49" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K49" s="9" t="s">
         <v>157</v>
-      </c>
-      <c r="G49" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="K49" s="9" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="50">
@@ -3550,23 +3556,23 @@
       <c r="C50" s="32"/>
       <c r="D50" s="33"/>
       <c r="E50" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G50" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J50" s="7"/>
       <c r="K50" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51">
@@ -3578,21 +3584,21 @@
       <c r="C51" s="32"/>
       <c r="D51" s="33"/>
       <c r="E51" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F51" s="28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G51" s="28"/>
       <c r="H51" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J51" s="7"/>
       <c r="K51" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52">
@@ -3604,25 +3610,25 @@
       <c r="C52" s="32"/>
       <c r="D52" s="33"/>
       <c r="E52" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G52" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53">
@@ -3639,10 +3645,10 @@
       <c r="F53" s="39"/>
       <c r="G53" s="7"/>
       <c r="H53" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
@@ -3654,29 +3660,29 @@
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D54" s="31"/>
       <c r="E54" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F54" s="40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55">
@@ -3688,25 +3694,25 @@
       <c r="C55" s="32"/>
       <c r="D55" s="33"/>
       <c r="E55" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F55" s="41" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56">
@@ -3718,21 +3724,21 @@
       <c r="C56" s="34"/>
       <c r="D56" s="35"/>
       <c r="E56" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F56" s="41" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G56" s="42"/>
       <c r="H56" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J56" s="7"/>
       <c r="K56" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57">
@@ -3742,27 +3748,27 @@
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D57" s="44"/>
       <c r="E57" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F57" s="41" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G57" s="42"/>
       <c r="H57" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K57" s="45" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58">
@@ -3772,29 +3778,29 @@
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D58" s="31"/>
       <c r="E58" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59">
@@ -3806,17 +3812,17 @@
       <c r="C59" s="32"/>
       <c r="D59" s="33"/>
       <c r="E59" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J59" s="7"/>
       <c r="K59" s="13"/>
@@ -3830,17 +3836,17 @@
       <c r="C60" s="32"/>
       <c r="D60" s="33"/>
       <c r="E60" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F60" s="46" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J60" s="7"/>
       <c r="K60" s="13"/>
@@ -3854,17 +3860,17 @@
       <c r="C61" s="34"/>
       <c r="D61" s="35"/>
       <c r="E61" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J61" s="7"/>
       <c r="K61" s="13"/>
@@ -3876,21 +3882,21 @@
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F62" s="12"/>
       <c r="G62" s="7"/>
       <c r="H62" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
@@ -3902,27 +3908,27 @@
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D63" s="31"/>
       <c r="E63" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64">
@@ -3934,21 +3940,21 @@
       <c r="C64" s="34"/>
       <c r="D64" s="35"/>
       <c r="E64" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G64" s="12"/>
       <c r="H64" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J64" s="12"/>
       <c r="K64" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65">
@@ -3958,28 +3964,28 @@
       </c>
       <c r="B65" s="11"/>
       <c r="C65" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F65" s="47" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K65" s="13"/>
     </row>
@@ -3992,22 +3998,22 @@
       <c r="C66" s="11"/>
       <c r="D66" s="16"/>
       <c r="E66" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G66" s="12" t="s">
         <v>15</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K66" s="13"/>
     </row>
@@ -4019,21 +4025,21 @@
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F67" s="48"/>
       <c r="G67" s="12"/>
       <c r="H67" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K67" s="13"/>
     </row>
@@ -4046,21 +4052,21 @@
       <c r="C68" s="11"/>
       <c r="D68" s="16"/>
       <c r="E68" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F68" s="48"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69">
@@ -4071,26 +4077,26 @@
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F69" s="48"/>
       <c r="G69" s="49" t="s">
         <v>15</v>
       </c>
       <c r="H69" s="49" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J69" s="24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70">
@@ -4101,28 +4107,28 @@
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G70" s="49" t="s">
         <v>15</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K70" s="45" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71">
@@ -4134,22 +4140,22 @@
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
       <c r="E71" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G71" s="49" t="s">
         <v>15</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K71" s="13"/>
     </row>
@@ -4162,23 +4168,23 @@
       <c r="C72" s="11"/>
       <c r="D72" s="16"/>
       <c r="E72" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F72" s="48"/>
       <c r="G72" s="49" t="s">
         <v>15</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73">
@@ -4189,21 +4195,21 @@
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F73" s="48"/>
       <c r="G73" s="49"/>
       <c r="H73" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I73" s="24" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K73" s="7"/>
     </row>
@@ -4221,13 +4227,13 @@
       <c r="F74" s="48"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K74" s="7"/>
     </row>
@@ -4239,24 +4245,24 @@
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F75" s="48"/>
       <c r="G75" s="12"/>
       <c r="H75" s="12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K75" s="45" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76">
@@ -4268,21 +4274,21 @@
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
       <c r="E76" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F76" s="48"/>
       <c r="G76" s="12"/>
       <c r="H76" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="77">
@@ -4292,26 +4298,26 @@
       </c>
       <c r="B77" s="11"/>
       <c r="C77" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F77" s="48"/>
       <c r="G77" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K77" s="7"/>
     </row>
@@ -4324,20 +4330,20 @@
       <c r="C78" s="11"/>
       <c r="D78" s="16"/>
       <c r="E78" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F78" s="48"/>
       <c r="G78" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K78" s="7"/>
     </row>
@@ -4349,21 +4355,21 @@
       <c r="B79" s="11"/>
       <c r="C79" s="16"/>
       <c r="D79" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
       <c r="H79" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K79" s="50"/>
     </row>
@@ -4374,24 +4380,24 @@
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="51" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D80" s="33"/>
       <c r="E80" s="52" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F80" s="53"/>
       <c r="G80" s="54" t="s">
         <v>75</v>
       </c>
       <c r="H80" s="55" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I80" s="55" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J80" s="55" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K80" s="56"/>
     </row>
@@ -4403,25 +4409,25 @@
       <c r="B81" s="11"/>
       <c r="D81" s="33"/>
       <c r="E81" s="57" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F81" s="53" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G81" s="54" t="s">
         <v>15</v>
       </c>
       <c r="H81" s="55" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I81" s="55" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J81" s="55" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K81" s="58" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="82">
@@ -4433,23 +4439,23 @@
       <c r="C82" s="59"/>
       <c r="D82" s="35"/>
       <c r="E82" s="52" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F82" s="53"/>
       <c r="G82" s="54" t="s">
         <v>15</v>
       </c>
       <c r="H82" s="52" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I82" s="55" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J82" s="55" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K82" s="58" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="83">
@@ -4459,27 +4465,27 @@
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="30" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D83" s="31"/>
       <c r="E83" s="60" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F83" s="12"/>
       <c r="G83" s="12" t="s">
         <v>15</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="84">
@@ -4491,21 +4497,21 @@
       <c r="C84" s="32"/>
       <c r="D84" s="33"/>
       <c r="E84" s="60" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F84" s="12"/>
       <c r="G84" s="12"/>
       <c r="H84" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="85">
@@ -4517,21 +4523,21 @@
       <c r="C85" s="34"/>
       <c r="D85" s="35"/>
       <c r="E85" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F85" s="61"/>
       <c r="G85" s="9"/>
       <c r="H85" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J85" s="24" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86">
@@ -4541,10 +4547,10 @@
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>13</v>
@@ -4552,16 +4558,16 @@
       <c r="F86" s="12"/>
       <c r="G86" s="7"/>
       <c r="H86" s="12" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K86" s="17" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87">
@@ -4572,24 +4578,24 @@
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F87" s="48"/>
       <c r="G87" s="12"/>
       <c r="H87" s="12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="88">
@@ -4600,21 +4606,21 @@
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F88" s="48"/>
       <c r="G88" s="7"/>
       <c r="H88" s="12" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K88" s="13"/>
     </row>
@@ -4626,24 +4632,24 @@
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F89" s="48"/>
       <c r="G89" s="12"/>
       <c r="H89" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="90">
@@ -4654,21 +4660,21 @@
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F90" s="48"/>
       <c r="G90" s="49"/>
       <c r="H90" s="49" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K90" s="7"/>
     </row>
@@ -4680,20 +4686,20 @@
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="52" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F91" s="62"/>
       <c r="G91" s="63" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H91" s="49" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I91" s="64" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
@@ -4706,21 +4712,21 @@
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F92" s="13"/>
       <c r="G92" s="13"/>
       <c r="H92" s="12" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K92" s="7"/>
     </row>
@@ -4733,18 +4739,18 @@
       <c r="C93" s="11"/>
       <c r="D93" s="16"/>
       <c r="E93" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K93" s="7"/>
     </row>
@@ -4756,24 +4762,24 @@
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F94" s="48"/>
       <c r="G94" s="65"/>
       <c r="H94" s="65" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="95">
@@ -4785,21 +4791,21 @@
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
       <c r="E95" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F95" s="48"/>
       <c r="G95" s="7"/>
       <c r="H95" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="96">
@@ -4811,18 +4817,18 @@
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
       <c r="E96" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F96" s="48"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K96" s="13"/>
     </row>
@@ -4835,21 +4841,21 @@
       <c r="C97" s="11"/>
       <c r="D97" s="16"/>
       <c r="E97" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F97" s="48"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="98" ht="36.75" customHeight="1">
@@ -4860,7 +4866,7 @@
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
       <c r="D98" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>13</v>
@@ -4868,13 +4874,13 @@
       <c r="F98" s="48"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K98" s="7"/>
     </row>
@@ -4884,13 +4890,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>13</v>
@@ -4900,16 +4906,16 @@
         <v>75</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="100">
@@ -4920,25 +4926,25 @@
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K100" s="13"/>
     </row>
@@ -4950,28 +4956,28 @@
       <c r="B101" s="11"/>
       <c r="C101" s="16"/>
       <c r="D101" s="67" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I101" s="67" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J101" s="67" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K101" s="67" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="102">
@@ -4981,26 +4987,26 @@
       </c>
       <c r="B102" s="11"/>
       <c r="C102" s="43" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D102" s="44"/>
       <c r="E102" s="49" t="s">
         <v>13</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G102" s="28" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K102" s="13"/>
     </row>
@@ -5011,7 +5017,7 @@
       </c>
       <c r="B103" s="16"/>
       <c r="C103" s="43" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D103" s="44"/>
       <c r="E103" s="49" t="s">
@@ -5020,13 +5026,13 @@
       <c r="F103" s="15"/>
       <c r="G103" s="28"/>
       <c r="H103" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K103" s="13"/>
     </row>

--- a/WebAppPentestGuidelines/WebAppPentestGuidelines.xlsx
+++ b/WebAppPentestGuidelines/WebAppPentestGuidelines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game\Documents\git\WebAppPentestGuidelines\WebAppPentestGuidelines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF39416-E9A9-4621-B954-CA90FBBF1B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C3A66F-75C8-43E4-8ED1-717C2E904572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2146,23 +2146,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2385,8 +2385,8 @@
   <dimension ref="A1:K1080"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3236,10 +3236,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="50"/>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="59"/>
+      <c r="D30" s="56"/>
       <c r="E30" s="7" t="s">
         <v>92</v>
       </c>
@@ -3266,8 +3266,8 @@
         <v>30</v>
       </c>
       <c r="B31" s="50"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="54"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="58"/>
       <c r="E31" s="7" t="s">
         <v>92</v>
       </c>
@@ -3294,8 +3294,8 @@
         <v>31</v>
       </c>
       <c r="B32" s="50"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="54"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="58"/>
       <c r="E32" s="7" t="s">
         <v>92</v>
       </c>
@@ -3319,8 +3319,8 @@
         <v>32</v>
       </c>
       <c r="B33" s="50"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="54"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="58"/>
       <c r="E33" s="7" t="s">
         <v>92</v>
       </c>
@@ -3345,8 +3345,8 @@
         <v>33</v>
       </c>
       <c r="B34" s="50"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="54"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="58"/>
       <c r="E34" s="7" t="s">
         <v>92</v>
       </c>
@@ -3373,8 +3373,8 @@
         <v>34</v>
       </c>
       <c r="B35" s="50"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="54"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="58"/>
       <c r="E35" s="7" t="s">
         <v>92</v>
       </c>
@@ -3399,8 +3399,8 @@
         <v>35</v>
       </c>
       <c r="B36" s="50"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="57"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="60"/>
       <c r="E36" s="7" t="s">
         <v>92</v>
       </c>
@@ -3710,10 +3710,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="50"/>
-      <c r="C48" s="58" t="s">
+      <c r="C48" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="D48" s="59"/>
+      <c r="D48" s="56"/>
       <c r="E48" s="7" t="s">
         <v>146</v>
       </c>
@@ -3742,8 +3742,8 @@
         <v>48</v>
       </c>
       <c r="B49" s="50"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="54"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="58"/>
       <c r="E49" s="7" t="s">
         <v>146</v>
       </c>
@@ -3772,8 +3772,8 @@
         <v>49</v>
       </c>
       <c r="B50" s="50"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="54"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="58"/>
       <c r="E50" s="7" t="s">
         <v>146</v>
       </c>
@@ -3800,8 +3800,8 @@
         <v>50</v>
       </c>
       <c r="B51" s="50"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="54"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="58"/>
       <c r="E51" s="7" t="s">
         <v>146</v>
       </c>
@@ -3826,8 +3826,8 @@
         <v>51</v>
       </c>
       <c r="B52" s="50"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="54"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="58"/>
       <c r="E52" s="7" t="s">
         <v>146</v>
       </c>
@@ -3856,8 +3856,8 @@
         <v>52</v>
       </c>
       <c r="B53" s="50"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="57"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="60"/>
       <c r="E53" s="5" t="s">
         <v>13</v>
       </c>
@@ -3878,10 +3878,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="50"/>
-      <c r="C54" s="58" t="s">
+      <c r="C54" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="D54" s="59"/>
+      <c r="D54" s="56"/>
       <c r="E54" s="5" t="s">
         <v>165</v>
       </c>
@@ -3910,8 +3910,8 @@
         <v>54</v>
       </c>
       <c r="B55" s="50"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="54"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="58"/>
       <c r="E55" s="5" t="s">
         <v>165</v>
       </c>
@@ -3940,8 +3940,8 @@
         <v>55</v>
       </c>
       <c r="B56" s="50"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="57"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="60"/>
       <c r="E56" s="5" t="s">
         <v>165</v>
       </c>
@@ -3966,10 +3966,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="50"/>
-      <c r="C57" s="62" t="s">
+      <c r="C57" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="D57" s="63"/>
+      <c r="D57" s="54"/>
       <c r="E57" s="5" t="s">
         <v>13</v>
       </c>
@@ -3996,10 +3996,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="50"/>
-      <c r="C58" s="58" t="s">
+      <c r="C58" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="D58" s="59"/>
+      <c r="D58" s="56"/>
       <c r="E58" s="5" t="s">
         <v>179</v>
       </c>
@@ -4028,8 +4028,8 @@
         <v>58</v>
       </c>
       <c r="B59" s="50"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="54"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="58"/>
       <c r="E59" s="5" t="s">
         <v>179</v>
       </c>
@@ -4052,8 +4052,8 @@
         <v>59</v>
       </c>
       <c r="B60" s="50"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="54"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="58"/>
       <c r="E60" s="5" t="s">
         <v>179</v>
       </c>
@@ -4076,8 +4076,8 @@
         <v>60</v>
       </c>
       <c r="B61" s="50"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="57"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="60"/>
       <c r="E61" s="5" t="s">
         <v>179</v>
       </c>
@@ -4126,10 +4126,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="50"/>
-      <c r="C63" s="58" t="s">
+      <c r="C63" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="D63" s="59"/>
+      <c r="D63" s="56"/>
       <c r="E63" s="5" t="s">
         <v>197</v>
       </c>
@@ -4156,8 +4156,8 @@
         <v>63</v>
       </c>
       <c r="B64" s="50"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="57"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="60"/>
       <c r="E64" s="5" t="s">
         <v>197</v>
       </c>
@@ -4598,10 +4598,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="50"/>
-      <c r="C80" s="53" t="s">
+      <c r="C80" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="D80" s="54"/>
+      <c r="D80" s="58"/>
       <c r="E80" s="28" t="s">
         <v>276</v>
       </c>
@@ -4626,8 +4626,8 @@
         <v>80</v>
       </c>
       <c r="B81" s="50"/>
-      <c r="C81" s="55"/>
-      <c r="D81" s="54"/>
+      <c r="C81" s="62"/>
+      <c r="D81" s="58"/>
       <c r="E81" s="32" t="s">
         <v>276</v>
       </c>
@@ -4656,8 +4656,8 @@
         <v>81</v>
       </c>
       <c r="B82" s="50"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="57"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="60"/>
       <c r="E82" s="28" t="s">
         <v>276</v>
       </c>
@@ -4684,10 +4684,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="50"/>
-      <c r="C83" s="58" t="s">
+      <c r="C83" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="D83" s="59"/>
+      <c r="D83" s="56"/>
       <c r="E83" s="33" t="s">
         <v>289</v>
       </c>
@@ -4714,8 +4714,8 @@
         <v>83</v>
       </c>
       <c r="B84" s="50"/>
-      <c r="C84" s="60"/>
-      <c r="D84" s="54"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="58"/>
       <c r="E84" s="33" t="s">
         <v>294</v>
       </c>
@@ -4740,8 +4740,8 @@
         <v>84</v>
       </c>
       <c r="B85" s="50"/>
-      <c r="C85" s="61"/>
-      <c r="D85" s="57"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="60"/>
       <c r="E85" s="7" t="s">
         <v>296</v>
       </c>
@@ -5206,10 +5206,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="50"/>
-      <c r="C102" s="62" t="s">
+      <c r="C102" s="53" t="s">
         <v>376</v>
       </c>
-      <c r="D102" s="63"/>
+      <c r="D102" s="54"/>
       <c r="E102" s="26" t="s">
         <v>13</v>
       </c>
@@ -5236,10 +5236,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="51"/>
-      <c r="C103" s="62" t="s">
+      <c r="C103" s="53" t="s">
         <v>382</v>
       </c>
-      <c r="D103" s="63"/>
+      <c r="D103" s="54"/>
       <c r="E103" s="26" t="s">
         <v>13</v>
       </c>
@@ -17959,6 +17959,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C80:D82"/>
+    <mergeCell ref="C83:D85"/>
+    <mergeCell ref="C86:C98"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="C65:C76"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C48:D53"/>
+    <mergeCell ref="C54:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D61"/>
+    <mergeCell ref="C63:D64"/>
     <mergeCell ref="C2:C29"/>
     <mergeCell ref="C37:C47"/>
     <mergeCell ref="B2:B98"/>
@@ -17975,23 +17992,6 @@
     <mergeCell ref="D94:D97"/>
     <mergeCell ref="D37:D39"/>
     <mergeCell ref="D44:D46"/>
-    <mergeCell ref="C48:D53"/>
-    <mergeCell ref="C54:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D61"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="C65:C76"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C80:D82"/>
-    <mergeCell ref="C83:D85"/>
-    <mergeCell ref="C86:C98"/>
-    <mergeCell ref="D92:D93"/>
   </mergeCells>
   <phoneticPr fontId="16"/>
   <hyperlinks>
@@ -17999,10 +17999,10 @@
     <hyperlink ref="F60" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="50" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId3"/>
   <headerFooter>
-    <oddHeader>&amp;CWebアプリケーション脆弱性診断ガイドライン Ver1.2.3</oddHeader>
+    <oddHeader>&amp;CWebアプリケーション脆弱性診断ガイドライン Ver1.2.4</oddHeader>
   </headerFooter>
 </worksheet>
 </file>